--- a/Crawling/crawling_data/day_genie/day_genie_20220114.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220114.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="231">
   <si>
     <t>날짜</t>
   </si>
@@ -202,8 +202,7 @@
     <t>비와 당신</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>오늘도 빛나는 너에게 (To You My Light) (Feat.이라온)</t>
@@ -224,8 +223,7 @@
     <t>사이렌 Remix (Feat. UNEDUCATED KID &amp; Paul Blanco)</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>다시 사랑한다면 (김필 Ver.)</t>
@@ -637,9 +635,6 @@
   </si>
   <si>
     <t>슬기로운 의사생활 시즌2 OST Part 1 (tvN 목요드라마)</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>Red Moon : To You My Light</t>
@@ -2059,7 +2054,7 @@
         <v>145</v>
       </c>
       <c r="E58" t="s">
-        <v>207</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2076,7 +2071,7 @@
         <v>141</v>
       </c>
       <c r="E59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2093,7 +2088,7 @@
         <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2110,7 +2105,7 @@
         <v>109</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2144,7 +2139,7 @@
         <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2161,7 +2156,7 @@
         <v>148</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2178,7 +2173,7 @@
         <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2195,7 +2190,7 @@
         <v>111</v>
       </c>
       <c r="E66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2212,7 +2207,7 @@
         <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2229,7 +2224,7 @@
         <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2280,7 +2275,7 @@
         <v>153</v>
       </c>
       <c r="E71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2331,7 +2326,7 @@
         <v>149</v>
       </c>
       <c r="E74" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2365,7 +2360,7 @@
         <v>155</v>
       </c>
       <c r="E76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2382,7 +2377,7 @@
         <v>109</v>
       </c>
       <c r="E77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2399,7 +2394,7 @@
         <v>156</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2416,7 +2411,7 @@
         <v>157</v>
       </c>
       <c r="E79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2450,7 +2445,7 @@
         <v>159</v>
       </c>
       <c r="E81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2467,7 +2462,7 @@
         <v>160</v>
       </c>
       <c r="E82" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2535,7 +2530,7 @@
         <v>153</v>
       </c>
       <c r="E86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2603,7 +2598,7 @@
         <v>166</v>
       </c>
       <c r="E90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2637,7 +2632,7 @@
         <v>133</v>
       </c>
       <c r="E92" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2654,7 +2649,7 @@
         <v>168</v>
       </c>
       <c r="E93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2671,7 +2666,7 @@
         <v>142</v>
       </c>
       <c r="E94" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2705,7 +2700,7 @@
         <v>169</v>
       </c>
       <c r="E96" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2756,7 +2751,7 @@
         <v>109</v>
       </c>
       <c r="E99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2790,7 +2785,7 @@
         <v>173</v>
       </c>
       <c r="E101" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
